--- a/outputs/scores-18AI882024-05-11.xlsx
+++ b/outputs/scores-18AI882024-05-11.xlsx
@@ -488,31 +488,31 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>1DT20A1036</t>
+          <t>1DT20AI 021</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Sejal Kaur Virdi</t>
+          <t>Harshit Wadhwani</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
